--- a/data/trans_camb/P40_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.362098800432277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-2.107076348102577</v>
+        <v>-2.107076348102588</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.52812711568592</v>
@@ -655,7 +655,7 @@
         <v>5.333161157517252</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.002506727197237879</v>
+        <v>0.002506727197226777</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.917180443136879</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.998193980005257</v>
+        <v>-4.220185408219105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.545913461219536</v>
+        <v>-1.998494672419374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.230541651970521</v>
+        <v>-6.001486522924059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.768812972032455</v>
+        <v>-2.552971985883152</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1042685155623705</v>
+        <v>-0.1833888719914824</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.931833704159375</v>
+        <v>-5.328865142875005</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.809331847775667</v>
+        <v>-1.667096736905508</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.1637001100244298</v>
+        <v>-0.08584851804662871</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.485033013682839</v>
+        <v>-4.496803518329052</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.48837771244448</v>
+        <v>5.142740487958313</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.640719570643578</v>
+        <v>6.65315258818035</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.933852515416689</v>
+        <v>2.238593263651138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.052077718812688</v>
+        <v>9.514895566745682</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.94053162801501</v>
+        <v>10.98638419341067</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.255849594748517</v>
+        <v>4.908911234363977</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.414996216664457</v>
+        <v>5.696365831811952</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.710103990101899</v>
+        <v>6.541507391024597</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.870150142906325</v>
+        <v>2.134805445756576</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.02686196519180317</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.0239618306858481</v>
+        <v>-0.02396183068584823</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.0421487076387991</v>
@@ -760,7 +760,7 @@
         <v>0.06371251461417156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.994657173684762e-05</v>
+        <v>2.994657173671499e-05</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.0222221791226218</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03341632786685062</v>
+        <v>-0.0468116320599295</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01712663305182769</v>
+        <v>-0.02219768292477713</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07016470493790135</v>
+        <v>-0.06692577559195249</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03011014390278006</v>
+        <v>-0.02939280314890783</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.001189466247953397</v>
+        <v>-0.001958672106992682</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05653618770402381</v>
+        <v>-0.0610383520828686</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02046933843139011</v>
+        <v>-0.01826792432601735</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.001946832075529428</v>
+        <v>-0.0009773477473017467</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.05119764273843605</v>
+        <v>-0.0507720780027762</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06486384084578092</v>
+        <v>0.05902765969006835</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07887225834501838</v>
+        <v>0.07790471570406375</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02232955236606476</v>
+        <v>0.02628026714505484</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1134547324489111</v>
+        <v>0.1212687787140683</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1358373607240863</v>
+        <v>0.13607276058205</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06662444078397965</v>
+        <v>0.06076337216997154</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06426060473326727</v>
+        <v>0.06760270224219633</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07927890636064484</v>
+        <v>0.0775963800543255</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.02209382612634201</v>
+        <v>0.02546795829113123</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.165772519848074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.909948865142941</v>
+        <v>-1.909948865142952</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.533049409672339</v>
@@ -878,7 +878,7 @@
         <v>1.576449845921668</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.532803642870373</v>
+        <v>-1.532803642870362</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.453293568785261</v>
+        <v>-4.581387304155385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.92578663496154</v>
+        <v>-4.029631015266669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.328202867655343</v>
+        <v>-6.565511545114325</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.224393805480156</v>
+        <v>-3.646449822919824</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.779651668975551</v>
+        <v>-3.85004969782405</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-6.395721232804137</v>
+        <v>-7.142330427726169</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.197081674523983</v>
+        <v>-2.228427848705884</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.440007474338013</v>
+        <v>-2.286334087044108</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.900277215711182</v>
+        <v>-4.698870922835178</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.929784478876393</v>
+        <v>5.498564282272872</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.205140575782191</v>
+        <v>6.081057599888697</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.941981011977735</v>
+        <v>2.739730979181029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.237853658425179</v>
+        <v>7.869263360890359</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.879444939127013</v>
+        <v>7.93771121964174</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.678593129476774</v>
+        <v>3.268532579656998</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.281477076604314</v>
+        <v>5.341230504453291</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.102859076988428</v>
+        <v>5.185262397839052</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.928509827000629</v>
+        <v>2.019259771535418</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.01328677083410332</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.02176844319448974</v>
+        <v>-0.02176844319448987</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.03044004092519574</v>
@@ -983,7 +983,7 @@
         <v>0.01844684552178312</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.01793611898812109</v>
+        <v>-0.01793611898812096</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.04954046243869373</v>
+        <v>-0.05076152811016403</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04313531373056704</v>
+        <v>-0.04454306134039004</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07055054503207299</v>
+        <v>-0.07272920004796476</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03760777890692281</v>
+        <v>-0.04204656090092133</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04440991610205614</v>
+        <v>-0.04579258768740733</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07411024577775636</v>
+        <v>-0.08245618195963308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02509357116606412</v>
+        <v>-0.02572885006954018</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02752184932074863</v>
+        <v>-0.02612001021638918</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.05613362315914358</v>
+        <v>-0.05387274201943155</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05766000288098397</v>
+        <v>0.06447279200955228</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07270468298295071</v>
+        <v>0.07183092743924634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03518577623503006</v>
+        <v>0.03221089129473553</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1042255166061027</v>
+        <v>0.09783923637237825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0969826622691997</v>
+        <v>0.09966867109261911</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04602369099416134</v>
+        <v>0.0416813513807495</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06377893202022765</v>
+        <v>0.06398184574806572</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06104813203607166</v>
+        <v>0.06188878562469959</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.02332468197129098</v>
+        <v>0.02439749670160836</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.891546233330065</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.998467595184529</v>
+        <v>-3.998467595184541</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.465161987730072</v>
@@ -1092,7 +1092,7 @@
         <v>-1.086461176952469</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.9070413398679</v>
+        <v>-3.907041339867912</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.985479011451462</v>
+        <v>-8.689904838269683</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.133686465035084</v>
+        <v>-5.948885902415784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.880340508505547</v>
+        <v>-9.153160210503451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.778098666712512</v>
+        <v>-3.726447242154177</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.36685808453467</v>
+        <v>-11.48474281877146</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.853295253701216</v>
+        <v>-10.11605476809124</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-5.692041089067051</v>
+        <v>-6.427099486268842</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.21705873784376</v>
+        <v>-5.913239615327736</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.056122218019969</v>
+        <v>-8.469119548295639</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4145577158382568</v>
+        <v>0.7424036862659125</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.999480917300844</v>
+        <v>3.877386770307254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8243200981724498</v>
+        <v>0.6009540450469925</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.20627860853184</v>
+        <v>14.82014470770086</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.570723095079416</v>
+        <v>9.583811280677033</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.612092710574912</v>
+        <v>8.095208156423132</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.029817985973466</v>
+        <v>1.846846103274381</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.105022270979606</v>
+        <v>2.966421633114179</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.023507256460423</v>
+        <v>0.2950208960035064</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.01077020371554691</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.04830294710493969</v>
+        <v>-0.04830294710493982</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.07647599172324096</v>
@@ -1197,7 +1197,7 @@
         <v>-0.0135635386953018</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04877606997986679</v>
+        <v>-0.04877606997986693</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.106116448294327</v>
+        <v>-0.1027797810109297</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06118900284755874</v>
+        <v>-0.07022141497995504</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1068707328398747</v>
+        <v>-0.10796761304196</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04891919771520434</v>
+        <v>-0.0479501688111947</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1528106043922162</v>
+        <v>-0.1511121636188009</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1309135965480442</v>
+        <v>-0.1313029684204921</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07008824370755058</v>
+        <v>-0.07763511313470264</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0634397594018014</v>
+        <v>-0.07200500431318548</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09786031473439381</v>
+        <v>-0.1028835230514087</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.004691778460971263</v>
+        <v>0.009153641555507771</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05000000949079128</v>
+        <v>0.04861644960514466</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.00983498777455695</v>
+        <v>0.00696071297190671</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.215264875113361</v>
+        <v>0.2291216693291554</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1311039741774481</v>
+        <v>0.1487196798632581</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1180218476824981</v>
+        <v>0.1227728652220833</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02665980905781656</v>
+        <v>0.02310033758701224</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.03926105971804131</v>
+        <v>0.03758237315802621</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01320872013252351</v>
+        <v>0.003829494982986785</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.424457520001089</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-1.278062556434501</v>
+        <v>-1.278062556434489</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.69791491361013</v>
+        <v>-5.695615480680289</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.703105521703851</v>
+        <v>-1.865318778309291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.466181171707341</v>
+        <v>-5.423761397493112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9140113012597824</v>
+        <v>-1.019146405382865</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2387909346174097</v>
+        <v>-0.3780802885347064</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.967068503067937</v>
+        <v>-2.923965777443517</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.06533273275516</v>
+        <v>-2.900641624862793</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2792781251386427</v>
+        <v>-0.2399575660938468</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.856769975605213</v>
+        <v>-3.678682270919009</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.964566993618288</v>
+        <v>1.05538654102179</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.836463035931025</v>
+        <v>4.64793426445176</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.370544986373979</v>
+        <v>0.9487960149223815</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.832490149238044</v>
+        <v>7.954714383266823</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.681592129145244</v>
+        <v>8.690731964816029</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.308167445735139</v>
+        <v>5.173488791078943</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.47828130598584</v>
+        <v>2.406594444070989</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.045733565291877</v>
+        <v>4.953268710849679</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.052899332713771</v>
+        <v>1.241103982517214</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.03079929971135852</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.01623597501740248</v>
+        <v>-0.01623597501740234</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0699474011295665</v>
+        <v>-0.07015080704065237</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02086186691351704</v>
+        <v>-0.02292359659299076</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06693008912485732</v>
+        <v>-0.06589524620297046</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.011464415974086</v>
+        <v>-0.01302909541331942</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.003098127443537736</v>
+        <v>-0.005612232569767872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03786964268962714</v>
+        <v>-0.03718836521228966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.03816099486302332</v>
+        <v>-0.03633417662078425</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.003521273658789723</v>
+        <v>-0.003163381579094511</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04852908541185141</v>
+        <v>-0.04600910697472481</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0121375892216642</v>
+        <v>0.01281677198658308</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.06178701185585955</v>
+        <v>0.05860351769795401</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0173017027488996</v>
+        <v>0.01211641889032149</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.107617900789125</v>
+        <v>0.108610028469251</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1183697125082408</v>
+        <v>0.1178423334420647</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07292365717472853</v>
+        <v>0.07220791346174285</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03215977230357982</v>
+        <v>0.03113895945693531</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06527689276265393</v>
+        <v>0.06380227373180949</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.01333182747831013</v>
+        <v>0.01596219072172572</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.944807832637707</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.612557924342151</v>
+        <v>-1.612557924342162</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-4.213649017680742</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.171787506165807</v>
+        <v>-1.442706654674735</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.66526763291717</v>
+        <v>-7.361246701161603</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.314832519835224</v>
+        <v>-6.71435564531529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-9.458780122806894</v>
+        <v>-9.26378213300033</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.558621144849891</v>
+        <v>-6.403448576078122</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.44914374948168</v>
+        <v>-11.02790077675415</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.666605605315264</v>
+        <v>-4.99509593030123</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.609164623049098</v>
+        <v>-4.377057919647265</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.269680689403227</v>
+        <v>-7.962386883676885</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.24894715846986</v>
+        <v>9.378746390408622</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.330884601284435</v>
+        <v>3.767772911677741</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.017549557739921</v>
+        <v>4.204646572938281</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.447715095774133</v>
+        <v>1.367021326427035</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.228936142463207</v>
+        <v>4.532661237087736</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.061059993100305</v>
+        <v>-1.613308915506319</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.311320181082104</v>
+        <v>3.002757562158545</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.302739850590358</v>
+        <v>3.146868166099678</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.6281996204854288</v>
+        <v>-0.3965540576430128</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.02451638701670864</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.02032802084430788</v>
+        <v>-0.02032802084430802</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.06093487138614419</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01383817196177544</v>
+        <v>-0.01750237917057164</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09309245673851806</v>
+        <v>-0.08811455881104521</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.08855805021738647</v>
+        <v>-0.08198016554914279</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1323200544568213</v>
+        <v>-0.1289854708498206</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.09125247290387974</v>
+        <v>-0.08775047401497198</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1597777638398775</v>
+        <v>-0.1541429157676876</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06239518127488846</v>
+        <v>-0.06541147670892146</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.06141607540607141</v>
+        <v>-0.05839117705778883</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1109234286800351</v>
+        <v>-0.105637130594664</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.136516466375258</v>
+        <v>0.1224269805549816</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.04379504442704608</v>
+        <v>0.04992751230709964</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.05260837721220713</v>
+        <v>0.05545014970029812</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02312576155569644</v>
+        <v>0.02062748477885759</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06321446637398521</v>
+        <v>0.06881025599728195</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02977677800279356</v>
+        <v>-0.02275762094605516</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04673564934996867</v>
+        <v>0.04295780168538139</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.046144435651929</v>
+        <v>0.04422799107445417</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.008855950107682985</v>
+        <v>-0.006130972478530184</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.883936149182366</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.207376086036628</v>
+        <v>3.20737608603664</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.821187080557296</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.194190695639657</v>
+        <v>-2.374905989995035</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.691009089359962</v>
+        <v>-4.89371382762288</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-9.432897439095974</v>
+        <v>-9.939824281262656</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.721168648189608</v>
+        <v>-1.959589930189756</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.8015465692434371</v>
+        <v>0.684672341380652</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.7357557912817136</v>
+        <v>-0.6061887670711871</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.625823914400807</v>
+        <v>-1.723312161952223</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.6543463932538255</v>
+        <v>0.7621531198033361</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.7860233118151798</v>
+        <v>-1.127652535937227</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.407180625136908</v>
+        <v>4.310741231254227</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.231099973786062</v>
+        <v>2.349729395092583</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.6371659637801657</v>
+        <v>0.3523972603043841</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.876612043842017</v>
+        <v>6.08292123802043</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.466345587742602</v>
+        <v>8.875242955459921</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.860571784198443</v>
+        <v>7.133962248313744</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.121094102770885</v>
+        <v>4.943064987373337</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.421758017966172</v>
+        <v>7.492089236857262</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.006628210562087</v>
+        <v>5.806924270824852</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.0765421421808411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05026671703026769</v>
+        <v>0.05026671703026786</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.02602796293931862</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.02275323387167403</v>
+        <v>-0.02457768395805713</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.04827553889896179</v>
+        <v>-0.05054720133082016</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.0974500370713465</v>
+        <v>-0.1026216174314642</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02579767167292083</v>
+        <v>-0.02929399521217647</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01342748331655773</v>
+        <v>0.009886313432146989</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.0108493539858383</v>
+        <v>-0.009908580299839619</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.02230524021238021</v>
+        <v>-0.02405025793598598</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.009142618090415201</v>
+        <v>0.01094471798316468</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.0109980982155121</v>
+        <v>-0.01535183017071593</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.04705409659090299</v>
+        <v>0.04572975697699602</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.0235639931411136</v>
+        <v>0.02541842341685511</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.007472903744892566</v>
+        <v>0.003571179398901827</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.09496233232913869</v>
+        <v>0.09867507820668112</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.13799761918662</v>
+        <v>0.1449213984827045</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1113794107574442</v>
+        <v>0.1145749003717178</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07543375332681083</v>
+        <v>0.07255664910181006</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1088353407189836</v>
+        <v>0.1101687998517555</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.08798146345702042</v>
+        <v>0.08600792791660122</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-0.00537031926052256</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-2.596829781471921</v>
+        <v>-2.596829781471899</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>1.583343194740228</v>
@@ -1948,7 +1948,7 @@
         <v>1.718230597154835</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.9386942495633432</v>
+        <v>-0.9386942495633543</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.744268225032557</v>
+        <v>-2.773943976298409</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.871937327465554</v>
+        <v>-1.820809463712144</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.42114112296295</v>
+        <v>-4.411687186327764</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.6964818532300369</v>
+        <v>-0.6591696298630833</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.192413637078717</v>
+        <v>1.192196407743321</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.242507059425293</v>
+        <v>-1.247916715631796</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.071746647443888</v>
+        <v>-1.16856352272037</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.3339529453381682</v>
+        <v>0.2763057475259595</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.35502927995392</v>
+        <v>-2.345702829428255</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.8032014877699641</v>
+        <v>0.9686409725065058</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.704456570079933</v>
+        <v>1.805632585620899</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.7516665471160915</v>
+        <v>-0.8928007919815187</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.580590347598846</v>
+        <v>3.838366223024591</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.853289517195153</v>
+        <v>5.737526268416515</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.825370738670886</v>
+        <v>2.595412596341679</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.781509837139161</v>
+        <v>1.72928046602158</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.224304755768852</v>
+        <v>3.078737556111329</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3651473577862042</v>
+        <v>0.5071880819916847</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-6.389132820154403e-05</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.03089479336381613</v>
+        <v>-0.03089479336381587</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.02214071888834564</v>
@@ -2053,7 +2053,7 @@
         <v>0.02211920269466767</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.01208404064552897</v>
+        <v>-0.01208404064552912</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03225992743397368</v>
+        <v>-0.03294952204524141</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02206637628783951</v>
+        <v>-0.02154686475993902</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.05211582700534334</v>
+        <v>-0.05205566072117037</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.009528493192409089</v>
+        <v>-0.009646962819960149</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.01761026030718511</v>
+        <v>0.01674374543812498</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.01697377634461895</v>
+        <v>-0.01720103763996637</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.01365427219614016</v>
+        <v>-0.01491818715552044</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.003842808638937209</v>
+        <v>0.003548854731734181</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.02983690750483686</v>
+        <v>-0.02994082831011336</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.009774796554165036</v>
+        <v>0.01158733075087588</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.02047989293218246</v>
+        <v>0.02169977203506758</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.009186134856165424</v>
+        <v>-0.01076805118068144</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.05120107786980506</v>
+        <v>0.05402702156031797</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.0832132322613075</v>
+        <v>0.08208525013465817</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.04000839381779214</v>
+        <v>0.03654628904584868</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02335176051866103</v>
+        <v>0.02237069402032157</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.04181567880306387</v>
+        <v>0.04007260941618149</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.004793703361103556</v>
+        <v>0.006587918048828819</v>
       </c>
     </row>
     <row r="46">
